--- a/doc/toceanCRM项目开发任务.xlsx
+++ b/doc/toceanCRM项目开发任务.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>PMMP项目开发任务</t>
   </si>
@@ -80,33 +80,36 @@
     <t>学员档案管理</t>
   </si>
   <si>
-    <t>10/26 下午</t>
-  </si>
-  <si>
     <t>杜智明</t>
   </si>
   <si>
     <t>学员考勤管理</t>
   </si>
   <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>学员表扬管理</t>
+  </si>
+  <si>
+    <t>表扬登记</t>
+  </si>
+  <si>
+    <t>杨明玉</t>
+  </si>
+  <si>
+    <t>表扬确认</t>
+  </si>
+  <si>
+    <t>学员违纪管理</t>
+  </si>
+  <si>
+    <t>违纪登记</t>
+  </si>
+  <si>
     <t>李博</t>
   </si>
   <si>
-    <t>学员表扬管理</t>
-  </si>
-  <si>
-    <t>表扬登记</t>
-  </si>
-  <si>
-    <t>表扬确认</t>
-  </si>
-  <si>
-    <t>学员违纪管理</t>
-  </si>
-  <si>
-    <t>违纪登记</t>
-  </si>
-  <si>
     <t>违纪确认</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>学员演讲管理</t>
+  </si>
+  <si>
+    <t>彭京雷</t>
   </si>
   <si>
     <t>分组讨论管理</t>
@@ -169,11 +175,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -377,6 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,6 +413,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,6 +431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,7 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +491,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,18 +545,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,43 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +781,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,15 +967,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1377,7 +1374,7 @@
       <c r="L2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="14" t="s">
@@ -1432,9 +1429,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1444,7 +1439,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1455,19 +1450,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1478,13 +1473,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1494,7 +1487,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1505,19 +1498,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1528,20 +1521,20 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1553,7 +1546,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="18"/>
@@ -1566,7 +1559,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1592,7 +1585,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1603,8 +1596,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="18"/>
       <c r="G11" s="6"/>
@@ -1664,7 +1657,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1677,7 +1670,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="18"/>
@@ -1690,7 +1683,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1724,7 +1717,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1749,7 +1742,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1762,7 +1755,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1775,7 +1768,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1788,7 +1781,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -1822,7 +1815,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1836,7 +1829,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -1870,7 +1863,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1884,7 +1877,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -1918,7 +1911,7 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1932,7 +1925,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -1966,7 +1959,7 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1980,7 +1973,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -2014,7 +2007,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2028,7 +2021,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -2062,7 +2055,7 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2087,7 +2080,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2100,7 +2093,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -2113,7 +2106,7 @@
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2126,7 +2119,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2139,7 +2132,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2152,7 +2145,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -2312,25 +2305,25 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
